--- a/Carlos/Hoja de Desempeño.xlsx
+++ b/Carlos/Hoja de Desempeño.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leelu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leelu\Desktop\Proyecto Universidad\Carlos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11BB5CB-91C7-4406-B79F-2776707165FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21897CA0-FA5F-406F-AF4C-124D4E645957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -936,7 +938,7 @@
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.1999999999999993</c:v>
@@ -1035,7 +1037,7 @@
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.1999999999999993</c:v>
@@ -1056,7 +1058,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,7 +1136,7 @@
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.1999999999999993</c:v>
@@ -1233,7 +1235,7 @@
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.1999999999999993</c:v>
@@ -1332,7 +1334,7 @@
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.1999999999999993</c:v>
@@ -1417,7 +1419,7 @@
                         <c:v>8.6</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>8.1999999999999993</c:v>
+                        <c:v>8.4</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>8.1999999999999993</c:v>
@@ -12081,7 +12083,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -12212,7 +12214,7 @@
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.1999999999999993</c:v>
@@ -25138,7 +25140,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25446,14 +25448,14 @@
         <v>8</v>
       </c>
       <c r="V5" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="19">
         <f t="shared" ref="Z5:Z8" si="6">AVERAGE(V5:Y5)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="1"/>
@@ -25473,11 +25475,11 @@
       </c>
       <c r="AE5" s="34">
         <f t="shared" ref="AE5:AE8" si="10">+Z5</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF5" s="22">
         <f t="shared" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25764,11 +25766,11 @@
       </c>
       <c r="AE9" s="37">
         <f>AVERAGE(AE4:AE8)</f>
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AF9" s="33">
         <f t="shared" si="2"/>
-        <v>8.52</v>
+        <v>8.5599999999999987</v>
       </c>
     </row>
   </sheetData>
@@ -26704,17 +26706,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="V1:Z2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="Q1:U2"/>
-    <mergeCell ref="V1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27574,17 +27576,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28439,17 +28441,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Carlos/Hoja de Desempeño.xlsx
+++ b/Carlos/Hoja de Desempeño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leelu\Desktop\Proyecto Universidad\Carlos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21897CA0-FA5F-406F-AF4C-124D4E645957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF22035-AC18-4CE3-93D0-199C9CFC4755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,13 +935,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.8000000000000007</c:v>
@@ -959,7 +959,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.6</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,13 +1034,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.8000000000000007</c:v>
@@ -1058,7 +1058,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.4</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,13 +1133,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.8000000000000007</c:v>
@@ -1157,7 +1157,7 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,13 +1232,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.8000000000000007</c:v>
@@ -1331,13 +1331,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.8000000000000007</c:v>
@@ -1416,13 +1416,13 @@
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
+                        <c:v>8.6999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>8.6</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8.4</c:v>
-                      </c:pt>
                       <c:pt idx="2">
-                        <c:v>8.1999999999999993</c:v>
+                        <c:v>8.5</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>8.8000000000000007</c:v>
@@ -11775,10 +11775,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -12080,13 +12080,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -12211,13 +12211,13 @@
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.8000000000000007</c:v>
@@ -25140,7 +25140,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25331,7 +25331,9 @@
       <c r="B4" s="7">
         <v>9</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="35">
+        <v>9</v>
+      </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="15">
@@ -25341,7 +25343,9 @@
       <c r="G4" s="8">
         <v>9</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>9</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="17">
@@ -25351,7 +25355,9 @@
       <c r="L4" s="9">
         <v>9</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9">
+        <v>9</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="13">
@@ -25361,7 +25367,9 @@
       <c r="Q4" s="29">
         <v>8</v>
       </c>
-      <c r="R4" s="29"/>
+      <c r="R4" s="29">
+        <v>8</v>
+      </c>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
       <c r="U4" s="30">
@@ -25371,12 +25379,14 @@
       <c r="V4" s="10">
         <v>8</v>
       </c>
-      <c r="W4" s="10"/>
+      <c r="W4" s="10">
+        <v>9</v>
+      </c>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="19">
         <f>AVERAGE(V4:Y4)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" ref="AA4:AA8" si="1">+F4</f>
@@ -25396,11 +25406,11 @@
       </c>
       <c r="AE4" s="34">
         <f>+Z4</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" s="21">
         <f t="shared" ref="AF4:AF9" si="2">AVERAGE(AA4:AE4)</f>
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25410,7 +25420,9 @@
       <c r="B5" s="12">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="16">
@@ -25420,7 +25432,9 @@
       <c r="G5" s="8">
         <v>9</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>9</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="17">
@@ -25430,17 +25444,21 @@
       <c r="L5" s="9">
         <v>8</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>9</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="13">
         <f t="shared" ref="P5:P8" si="4">AVERAGE(L5:O5)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q5" s="29">
         <v>8</v>
       </c>
-      <c r="R5" s="31"/>
+      <c r="R5" s="31">
+        <v>8</v>
+      </c>
       <c r="S5" s="31"/>
       <c r="T5" s="29"/>
       <c r="U5" s="30">
@@ -25450,12 +25468,14 @@
       <c r="V5" s="10">
         <v>8</v>
       </c>
-      <c r="W5" s="4"/>
+      <c r="W5" s="4">
+        <v>9</v>
+      </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="19">
         <f t="shared" ref="Z5:Z8" si="6">AVERAGE(V5:Y5)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="1"/>
@@ -25467,7 +25487,7 @@
       </c>
       <c r="AC5" s="34">
         <f t="shared" ref="AC5:AC8" si="8">+P5</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" s="34">
         <f t="shared" ref="AD5:AD8" si="9">+U5</f>
@@ -25475,11 +25495,11 @@
       </c>
       <c r="AE5" s="34">
         <f t="shared" ref="AE5:AE8" si="10">+Z5</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" s="22">
         <f t="shared" si="2"/>
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25489,7 +25509,9 @@
       <c r="B6" s="12">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="16">
@@ -25499,7 +25521,9 @@
       <c r="G6" s="8">
         <v>9</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="17">
@@ -25509,17 +25533,21 @@
       <c r="L6" s="9">
         <v>8</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>9</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q6" s="29">
         <v>8</v>
       </c>
-      <c r="R6" s="31"/>
+      <c r="R6" s="31">
+        <v>8</v>
+      </c>
       <c r="S6" s="31"/>
       <c r="T6" s="29"/>
       <c r="U6" s="30">
@@ -25529,12 +25557,14 @@
       <c r="V6" s="10">
         <v>7</v>
       </c>
-      <c r="W6" s="4"/>
+      <c r="W6" s="4">
+        <v>9</v>
+      </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="19">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA6" s="5">
         <f t="shared" si="1"/>
@@ -25546,7 +25576,7 @@
       </c>
       <c r="AC6" s="34">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" s="34">
         <f t="shared" si="9"/>
@@ -25554,11 +25584,11 @@
       </c>
       <c r="AE6" s="34">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="22">
         <f t="shared" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25568,7 +25598,9 @@
       <c r="B7" s="12">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="16">
@@ -25578,7 +25610,9 @@
       <c r="G7" s="8">
         <v>9</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>9</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="17">
@@ -25588,7 +25622,9 @@
       <c r="L7" s="9">
         <v>9</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>9</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="13">
@@ -25598,7 +25634,9 @@
       <c r="Q7" s="29">
         <v>8</v>
       </c>
-      <c r="R7" s="31"/>
+      <c r="R7" s="31">
+        <v>8</v>
+      </c>
       <c r="S7" s="31"/>
       <c r="T7" s="29"/>
       <c r="U7" s="30">
@@ -25608,7 +25646,9 @@
       <c r="V7" s="10">
         <v>9</v>
       </c>
-      <c r="W7" s="4"/>
+      <c r="W7" s="4">
+        <v>9</v>
+      </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="19">
@@ -25647,7 +25687,9 @@
       <c r="B8" s="43">
         <v>9</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="44">
+        <v>9</v>
+      </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
       <c r="F8" s="45">
@@ -25657,7 +25699,9 @@
       <c r="G8" s="8">
         <v>9</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="46">
+        <v>9</v>
+      </c>
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
       <c r="K8" s="17">
@@ -25667,7 +25711,9 @@
       <c r="L8" s="9">
         <v>9</v>
       </c>
-      <c r="M8" s="47"/>
+      <c r="M8" s="47">
+        <v>9</v>
+      </c>
       <c r="N8" s="47"/>
       <c r="O8" s="47"/>
       <c r="P8" s="13">
@@ -25677,7 +25723,9 @@
       <c r="Q8" s="29">
         <v>8</v>
       </c>
-      <c r="R8" s="48"/>
+      <c r="R8" s="48">
+        <v>8</v>
+      </c>
       <c r="S8" s="48"/>
       <c r="T8" s="29"/>
       <c r="U8" s="30">
@@ -25687,7 +25735,9 @@
       <c r="V8" s="10">
         <v>9</v>
       </c>
-      <c r="W8" s="49"/>
+      <c r="W8" s="49">
+        <v>9</v>
+      </c>
       <c r="X8" s="49"/>
       <c r="Y8" s="49"/>
       <c r="Z8" s="19">
@@ -25758,7 +25808,7 @@
       </c>
       <c r="AC9" s="37">
         <f>AVERAGE(AC4:AC8)</f>
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD9" s="37">
         <f>AVERAGE(AD4:AD8)</f>
@@ -25766,11 +25816,11 @@
       </c>
       <c r="AE9" s="37">
         <f>AVERAGE(AE4:AE8)</f>
-        <v>8.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="AF9" s="33">
         <f t="shared" si="2"/>
-        <v>8.5599999999999987</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
@@ -26706,17 +26756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="Q1:U2"/>
-    <mergeCell ref="V1:Z2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="Q1:U2"/>
+    <mergeCell ref="V1:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27576,17 +27626,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -28441,17 +28491,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="L1:P2"/>
     <mergeCell ref="Q1:U2"/>
     <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
